--- a/GameConfig/Datas/模型配置表.xlsx
+++ b/GameConfig/Datas/模型配置表.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unity\GitHub Project\DGame\GameConfig\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22531B87-1D9D-492C-92F9-2B384B9E6BEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -50,6 +44,42 @@
     <t>ModelLocation</t>
   </si>
   <si>
+    <t>FrameCfgLocation</t>
+  </si>
+  <si>
+    <t>DeathFrameSpeed</t>
+  </si>
+  <si>
+    <t>ModelScale</t>
+  </si>
+  <si>
+    <t>UIScale</t>
+  </si>
+  <si>
+    <t>ShowType</t>
+  </si>
+  <si>
+    <t>ShowShadow</t>
+  </si>
+  <si>
+    <t>ShadowWidth</t>
+  </si>
+  <si>
+    <t>ShadowHeight</t>
+  </si>
+  <si>
+    <t>ShadowScaleX</t>
+  </si>
+  <si>
+    <t>ShadowScaleY</t>
+  </si>
+  <si>
+    <t>ShadowOffsetX</t>
+  </si>
+  <si>
+    <t>ShadowOffsetY</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -59,6 +89,12 @@
     <t>string</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>byte</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
@@ -75,6 +111,42 @@
   </si>
   <si>
     <t>Model可寻址地址</t>
+  </si>
+  <si>
+    <t>帧动画配置文件</t>
+  </si>
+  <si>
+    <t>死亡动画速度</t>
+  </si>
+  <si>
+    <t>模型缩放</t>
+  </si>
+  <si>
+    <t>UI模型缩放</t>
+  </si>
+  <si>
+    <t>显示类型</t>
+  </si>
+  <si>
+    <t>显示阴影</t>
+  </si>
+  <si>
+    <t>阴影宽度</t>
+  </si>
+  <si>
+    <t>阴影高度</t>
+  </si>
+  <si>
+    <t>阴影缩放X</t>
+  </si>
+  <si>
+    <t>阴影缩放Y</t>
+  </si>
+  <si>
+    <t>阴影偏移X</t>
+  </si>
+  <si>
+    <t>阴影偏移Y</t>
   </si>
   <si>
     <t>黑女神</t>
@@ -86,8 +158,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -110,13 +188,137 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,8 +337,182 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -161,70 +537,267 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
       </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
-      <bottom/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="22" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="23" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="23" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -233,35 +806,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="差" xfId="2" builtinId="27"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -519,63 +1119,80 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AJ14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="9.25" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.4140625" customWidth="1"/>
-    <col min="4" max="5" width="22.5" customWidth="1"/>
-    <col min="6" max="6" width="17.9140625" customWidth="1"/>
-    <col min="7" max="7" width="18.75" customWidth="1"/>
-    <col min="8" max="8" width="16.5" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" customWidth="1"/>
-    <col min="10" max="10" width="12.4140625" customWidth="1"/>
-    <col min="11" max="11" width="17.9140625" customWidth="1"/>
-    <col min="12" max="12" width="28" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="5.1640625" customWidth="1"/>
+    <col min="2" max="2" width="17.3333333333333" customWidth="1"/>
+    <col min="3" max="3" width="12.4166666666667" customWidth="1"/>
+    <col min="4" max="6" width="22.5" customWidth="1"/>
+    <col min="7" max="12" width="18.75" customWidth="1"/>
+    <col min="13" max="17" width="18.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:36">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="5"/>
-      <c r="P1"/>
-      <c r="Q1"/>
+      <c r="F1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="R1"/>
       <c r="S1"/>
       <c r="T1"/>
@@ -596,32 +1213,56 @@
       <c r="AI1"/>
       <c r="AJ1"/>
     </row>
-    <row r="2" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" s="2" customFormat="1" spans="1:36">
       <c r="A2" s="6" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C2" s="7"/>
       <c r="D2" s="6" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="5"/>
-      <c r="P2"/>
-      <c r="Q2"/>
+        <v>19</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>20</v>
+      </c>
       <c r="R2"/>
       <c r="S2"/>
       <c r="T2"/>
@@ -642,9 +1283,9 @@
       <c r="AI2"/>
       <c r="AJ2"/>
     </row>
-    <row r="3" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" s="2" customFormat="1" spans="1:36">
       <c r="A3" s="6" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -657,11 +1298,11 @@
       <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="5"/>
-      <c r="P3"/>
-      <c r="Q3"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
       <c r="R3"/>
       <c r="S3"/>
       <c r="T3"/>
@@ -682,34 +1323,58 @@
       <c r="AI3"/>
       <c r="AJ3"/>
     </row>
-    <row r="4" spans="1:36" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="5"/>
-      <c r="P4"/>
-      <c r="Q4"/>
+    <row r="4" s="1" customFormat="1" spans="1:36">
+      <c r="A4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>39</v>
+      </c>
       <c r="R4"/>
       <c r="S4"/>
       <c r="T4"/>
@@ -730,179 +1395,205 @@
       <c r="AI4"/>
       <c r="AJ4"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10">
+    <row r="5" spans="1:36">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8">
         <v>100001</v>
       </c>
-      <c r="C5" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
+      <c r="C5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+      <c r="N5" s="8"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
+    <row r="6" spans="1:36">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="8"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
+    <row r="7" spans="1:36">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="8"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="8"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="11"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
+    <row r="8" spans="1:36">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
+    <row r="9" spans="1:36">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="8"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
+    <row r="10" spans="1:36">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="8"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="8"/>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
+    <row r="11" spans="1:36">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="8"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="8"/>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
+    <row r="12" spans="1:36">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="8"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="8"/>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
+    <row r="13" spans="1:36">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8"/>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="8"/>
+      <c r="P13" s="8"/>
+      <c r="Q13" s="8"/>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
+    <row r="14" spans="1:36">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8"/>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="8"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="M2:N2"/>
-  </mergeCells>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/GameConfig/Datas/模型配置表.xlsx
+++ b/GameConfig/Datas/模型配置表.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -147,12 +147,6 @@
   </si>
   <si>
     <t>阴影偏移Y</t>
-  </si>
-  <si>
-    <t>黑女神</t>
-  </si>
-  <si>
-    <t>nvshenheispine</t>
   </si>
 </sst>
 </file>
@@ -1128,7 +1122,7 @@
   <dimension ref="A1:AJ14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A5" sqref="$A5:$XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1397,15 +1391,9 @@
     </row>
     <row r="5" spans="1:36">
       <c r="A5" s="8"/>
-      <c r="B5" s="8">
-        <v>100001</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>41</v>
-      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="8"/>
@@ -1424,9 +1412,9 @@
       <c r="A6" s="8"/>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
@@ -1442,10 +1430,10 @@
     <row r="7" spans="1:36">
       <c r="A7" s="8"/>
       <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="8"/>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
